--- a/Unity/Assets/Config/Excel/Datas/EffectConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/EffectConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFBD057-19F1-4C9B-95C1-4ADFF9358108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AAE14-A6D6-4324-B95C-2349FB161DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>绑定位置</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>1500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindUnit</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -610,22 +610,22 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -691,24 +691,24 @@
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -727,19 +727,19 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
